--- a/pokedex.xlsx
+++ b/pokedex.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\iNeuron_Data_Science\Data Science Assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3665,8 +3670,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3742,6 +3747,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3788,7 +3801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3820,9 +3833,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3854,6 +3868,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4029,14 +4044,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F130" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="76.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4089,7 +4112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4124,7 +4147,7 @@
         <v>694</v>
       </c>
       <c r="L2">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="M2">
         <v>69</v>
@@ -4145,7 +4168,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4180,7 +4203,7 @@
         <v>695</v>
       </c>
       <c r="L3">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="M3">
         <v>4.2</v>
@@ -4201,7 +4224,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4236,7 +4259,7 @@
         <v>695</v>
       </c>
       <c r="L4">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M4">
         <v>1.7</v>
@@ -4257,7 +4280,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4313,7 +4336,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4348,7 +4371,7 @@
         <v>695</v>
       </c>
       <c r="L6">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M6">
         <v>1.2</v>
@@ -4369,7 +4392,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4404,7 +4427,7 @@
         <v>695</v>
       </c>
       <c r="L7">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="M7">
         <v>0.31</v>
@@ -4425,7 +4448,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4460,7 +4483,7 @@
         <v>694</v>
       </c>
       <c r="L8">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M8">
         <v>58</v>
@@ -4481,7 +4504,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4516,7 +4539,7 @@
         <v>695</v>
       </c>
       <c r="L9">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M9">
         <v>3.4</v>
@@ -4537,7 +4560,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4572,7 +4595,7 @@
         <v>695</v>
       </c>
       <c r="L10">
-        <v>0.0067</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="M10">
         <v>0.67</v>
@@ -4593,7 +4616,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4649,7 +4672,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4705,7 +4728,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4740,10 +4763,10 @@
         <v>695</v>
       </c>
       <c r="L13">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M13">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N13" t="s">
         <v>709</v>
@@ -4761,7 +4784,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4817,7 +4840,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4873,7 +4896,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4908,10 +4931,10 @@
         <v>695</v>
       </c>
       <c r="L16">
-        <v>0.051</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="M16">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N16" t="s">
         <v>712</v>
@@ -4929,7 +4952,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4967,7 +4990,7 @@
         <v>15.98</v>
       </c>
       <c r="M17">
-        <v>1.598</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="N17" t="s">
         <v>713</v>
@@ -4985,7 +5008,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5041,7 +5064,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5097,7 +5120,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5135,7 +5158,7 @@
         <v>13.05</v>
       </c>
       <c r="M20">
-        <v>1.305</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="N20" t="s">
         <v>716</v>
@@ -5153,7 +5176,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5209,7 +5232,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5244,7 +5267,7 @@
         <v>694</v>
       </c>
       <c r="L22">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="M22">
         <v>473</v>
@@ -5265,7 +5288,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5321,7 +5344,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5377,7 +5400,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5412,7 +5435,7 @@
         <v>695</v>
       </c>
       <c r="L25">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M25">
         <v>7.2</v>
@@ -5433,7 +5456,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5489,7 +5512,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5524,7 +5547,7 @@
         <v>695</v>
       </c>
       <c r="L27">
-        <v>0.0076</v>
+        <v>7.6E-3</v>
       </c>
       <c r="M27">
         <v>0.76</v>
@@ -5545,7 +5568,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5580,7 +5603,7 @@
         <v>696</v>
       </c>
       <c r="L28">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="M28">
         <v>111</v>
@@ -5601,7 +5624,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5636,7 +5659,7 @@
         <v>695</v>
       </c>
       <c r="L29">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="M29">
         <v>3.7</v>
@@ -5657,7 +5680,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5713,7 +5736,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5748,10 +5771,10 @@
         <v>695</v>
       </c>
       <c r="L31">
-        <v>0.08799999999999999</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="M31">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N31" t="s">
         <v>726</v>
@@ -5769,7 +5792,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5804,7 +5827,7 @@
         <v>695</v>
       </c>
       <c r="L32">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M32">
         <v>1.2</v>
@@ -5825,7 +5848,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5881,7 +5904,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5916,10 +5939,10 @@
         <v>695</v>
       </c>
       <c r="L34">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="M34">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N34" t="s">
         <v>729</v>
@@ -5937,7 +5960,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5972,7 +5995,7 @@
         <v>695</v>
       </c>
       <c r="L35">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M35">
         <v>1.7</v>
@@ -5993,7 +6016,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6049,7 +6072,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6084,7 +6107,7 @@
         <v>695</v>
       </c>
       <c r="L37">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M37">
         <v>1.2</v>
@@ -6105,7 +6128,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6161,7 +6184,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6196,7 +6219,7 @@
         <v>695</v>
       </c>
       <c r="L39">
-        <v>0.0077</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="M39">
         <v>0.77</v>
@@ -6217,7 +6240,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6273,7 +6296,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6308,7 +6331,7 @@
         <v>695</v>
       </c>
       <c r="L41">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M41">
         <v>1.8</v>
@@ -6329,7 +6352,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6385,7 +6408,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6441,7 +6464,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6497,7 +6520,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6532,7 +6555,7 @@
         <v>695</v>
       </c>
       <c r="L45">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="M45">
         <v>6.4</v>
@@ -6553,7 +6576,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6588,7 +6611,7 @@
         <v>695</v>
       </c>
       <c r="L46">
-        <v>0.0097</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="M46">
         <v>0.97</v>
@@ -6609,7 +6632,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6665,7 +6688,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6700,7 +6723,7 @@
         <v>695</v>
       </c>
       <c r="L48">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="M48">
         <v>7.4</v>
@@ -6721,7 +6744,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6756,7 +6779,7 @@
         <v>696</v>
       </c>
       <c r="L49">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="M49">
         <v>228</v>
@@ -6777,7 +6800,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6812,7 +6835,7 @@
         <v>695</v>
       </c>
       <c r="L50">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M50">
         <v>7.2</v>
@@ -6833,7 +6856,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6889,7 +6912,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6924,7 +6947,7 @@
         <v>695</v>
       </c>
       <c r="L52">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="M52">
         <v>1.4</v>
@@ -6945,7 +6968,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7001,7 +7024,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7036,10 +7059,10 @@
         <v>695</v>
       </c>
       <c r="L54">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M54">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N54" t="s">
         <v>747</v>
@@ -7057,7 +7080,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7113,7 +7136,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7148,10 +7171,10 @@
         <v>695</v>
       </c>
       <c r="L56">
-        <v>0.08699999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="M56">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N56" t="s">
         <v>749</v>
@@ -7169,7 +7192,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7225,7 +7248,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7260,7 +7283,7 @@
         <v>695</v>
       </c>
       <c r="L58">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="M58">
         <v>3.1</v>
@@ -7281,7 +7304,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7337,7 +7360,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7372,7 +7395,7 @@
         <v>695</v>
       </c>
       <c r="L60">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M60">
         <v>1.7</v>
@@ -7393,7 +7416,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7449,7 +7472,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7505,7 +7528,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7540,10 +7563,10 @@
         <v>695</v>
       </c>
       <c r="L63">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="M63">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N63" t="s">
         <v>734</v>
@@ -7561,7 +7584,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7617,7 +7640,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7652,7 +7675,7 @@
         <v>695</v>
       </c>
       <c r="L65">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="M65">
         <v>2.7</v>
@@ -7673,7 +7696,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7708,7 +7731,7 @@
         <v>695</v>
       </c>
       <c r="L66">
-        <v>0.0073</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="M66">
         <v>0.73</v>
@@ -7729,7 +7752,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7785,7 +7808,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7820,7 +7843,7 @@
         <v>695</v>
       </c>
       <c r="L68">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M68">
         <v>3.4</v>
@@ -7841,7 +7864,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7876,7 +7899,7 @@
         <v>695</v>
       </c>
       <c r="L69">
-        <v>0.0068</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="M69">
         <v>0.68</v>
@@ -7897,7 +7920,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7932,7 +7955,7 @@
         <v>696</v>
       </c>
       <c r="L70">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M70">
         <v>115</v>
@@ -7953,7 +7976,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7988,7 +8011,7 @@
         <v>695</v>
       </c>
       <c r="L71">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M71">
         <v>7.2</v>
@@ -8009,7 +8032,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8044,7 +8067,7 @@
         <v>695</v>
       </c>
       <c r="L72">
-        <v>0.0059</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="M72">
         <v>0.59</v>
@@ -8065,7 +8088,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8100,7 +8123,7 @@
         <v>696</v>
       </c>
       <c r="L73">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="M73">
         <v>81</v>
@@ -8121,7 +8144,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8156,10 +8179,10 @@
         <v>695</v>
       </c>
       <c r="L74">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M74">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N74" t="s">
         <v>764</v>
@@ -8177,7 +8200,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8233,7 +8256,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8268,7 +8291,7 @@
         <v>695</v>
       </c>
       <c r="L76">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M76">
         <v>7.1</v>
@@ -8289,7 +8312,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8324,7 +8347,7 @@
         <v>695</v>
       </c>
       <c r="L77">
-        <v>0.0047</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="M77">
         <v>0.47</v>
@@ -8345,7 +8368,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8401,7 +8424,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8436,10 +8459,10 @@
         <v>695</v>
       </c>
       <c r="L79">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="M79">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N79" t="s">
         <v>721</v>
@@ -8457,7 +8480,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8513,7 +8536,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8548,7 +8571,7 @@
         <v>695</v>
       </c>
       <c r="L81">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="M81">
         <v>3.6</v>
@@ -8569,7 +8592,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8625,7 +8648,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8660,10 +8683,10 @@
         <v>695</v>
       </c>
       <c r="L83">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N83" t="s">
         <v>771</v>
@@ -8681,7 +8704,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8716,7 +8739,7 @@
         <v>696</v>
       </c>
       <c r="L84">
-        <v>0.0212</v>
+        <v>2.12E-2</v>
       </c>
       <c r="M84">
         <v>2.12</v>
@@ -8737,7 +8760,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8793,7 +8816,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8849,7 +8872,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8884,7 +8907,7 @@
         <v>696</v>
       </c>
       <c r="L87">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M87">
         <v>28</v>
@@ -8905,7 +8928,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8940,7 +8963,7 @@
         <v>695</v>
       </c>
       <c r="L88">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M88">
         <v>1.3</v>
@@ -8961,7 +8984,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8996,7 +9019,7 @@
         <v>696</v>
       </c>
       <c r="L89">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="M89">
         <v>5.2</v>
@@ -9017,7 +9040,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9052,7 +9075,7 @@
         <v>695</v>
       </c>
       <c r="L90">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="M90">
         <v>0.31</v>
@@ -9073,7 +9096,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9129,7 +9152,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9164,7 +9187,7 @@
         <v>695</v>
       </c>
       <c r="L92">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M92">
         <v>1.5</v>
@@ -9185,7 +9208,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9241,7 +9264,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9276,7 +9299,7 @@
         <v>695</v>
       </c>
       <c r="L94">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="M94">
         <v>5.2</v>
@@ -9297,7 +9320,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9332,7 +9355,7 @@
         <v>695</v>
       </c>
       <c r="L95">
-        <v>0.0067</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="M95">
         <v>0.67</v>
@@ -9353,7 +9376,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9409,7 +9432,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9465,7 +9488,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9521,7 +9544,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9577,7 +9600,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9612,7 +9635,7 @@
         <v>695</v>
       </c>
       <c r="L100">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="M100">
         <v>6.2</v>
@@ -9633,7 +9656,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9689,7 +9712,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9745,7 +9768,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9801,7 +9824,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9836,7 +9859,7 @@
         <v>695</v>
       </c>
       <c r="L104">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="M104">
         <v>1.4</v>
@@ -9857,7 +9880,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9913,7 +9936,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9969,7 +9992,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10025,7 +10048,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10060,10 +10083,10 @@
         <v>697</v>
       </c>
       <c r="L108">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M108">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N108" t="s">
         <v>791</v>
@@ -10081,7 +10104,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10116,10 +10139,10 @@
         <v>696</v>
       </c>
       <c r="L109">
-        <v>0.011</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="M109">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N109" t="s">
         <v>792</v>
@@ -10137,7 +10160,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10193,7 +10216,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10228,7 +10251,7 @@
         <v>695</v>
       </c>
       <c r="L111">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M111">
         <v>1.6</v>
@@ -10249,7 +10272,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10305,7 +10328,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10340,10 +10363,10 @@
         <v>695</v>
       </c>
       <c r="L113">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="M113">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N113" t="s">
         <v>796</v>
@@ -10361,7 +10384,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10396,7 +10419,7 @@
         <v>697</v>
       </c>
       <c r="L114">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M114">
         <v>1.3</v>
@@ -10417,7 +10440,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10452,7 +10475,7 @@
         <v>696</v>
       </c>
       <c r="L115">
-        <v>0.228</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="M115">
         <v>22.8</v>
@@ -10473,7 +10496,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10508,7 +10531,7 @@
         <v>696</v>
       </c>
       <c r="L116">
-        <v>0.0086</v>
+        <v>8.6E-3</v>
       </c>
       <c r="M116">
         <v>0.86</v>
@@ -10529,7 +10552,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10564,7 +10587,7 @@
         <v>696</v>
       </c>
       <c r="L117">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="M117">
         <v>113</v>
@@ -10585,7 +10608,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10620,7 +10643,7 @@
         <v>695</v>
       </c>
       <c r="L118">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M118">
         <v>3.4</v>
@@ -10641,7 +10664,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10676,7 +10699,7 @@
         <v>696</v>
       </c>
       <c r="L119">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="M119">
         <v>218</v>
@@ -10697,7 +10720,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10753,7 +10776,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10809,7 +10832,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10844,7 +10867,7 @@
         <v>695</v>
       </c>
       <c r="L122">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M122">
         <v>3.4</v>
@@ -10865,7 +10888,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10900,7 +10923,7 @@
         <v>697</v>
       </c>
       <c r="L123">
-        <v>0.0031</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="M123">
         <v>0.31</v>
@@ -10921,7 +10944,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10956,7 +10979,7 @@
         <v>697</v>
       </c>
       <c r="L124">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M124">
         <v>14</v>
@@ -10977,7 +11000,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11033,7 +11056,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11068,7 +11091,7 @@
         <v>697</v>
       </c>
       <c r="L126">
-        <v>0.074</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="M126">
         <v>7.4</v>
@@ -11089,7 +11112,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11145,7 +11168,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11201,7 +11224,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11257,7 +11280,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11313,7 +11336,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11348,7 +11371,7 @@
         <v>695</v>
       </c>
       <c r="L131">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="M131">
         <v>0.32</v>
@@ -11369,7 +11392,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11404,7 +11427,7 @@
         <v>697</v>
       </c>
       <c r="L132">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M132">
         <v>0.6</v>
@@ -11425,7 +11448,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11481,7 +11504,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11537,7 +11560,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11572,7 +11595,7 @@
         <v>695</v>
       </c>
       <c r="L135">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="M135">
         <v>1.4</v>
@@ -11593,7 +11616,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11628,7 +11651,7 @@
         <v>695</v>
       </c>
       <c r="L136">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M136">
         <v>1.2</v>
@@ -11649,7 +11672,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11684,7 +11707,7 @@
         <v>695</v>
       </c>
       <c r="L137">
-        <v>0.017</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M137">
         <v>1.7</v>
@@ -11705,7 +11728,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11740,7 +11763,7 @@
         <v>696</v>
       </c>
       <c r="L138">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M138">
         <v>1.2</v>
@@ -11761,7 +11784,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11796,7 +11819,7 @@
         <v>697</v>
       </c>
       <c r="L139">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M139">
         <v>14</v>
@@ -11817,7 +11840,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11852,7 +11875,7 @@
         <v>690</v>
       </c>
       <c r="L140">
-        <v>0.0061</v>
+        <v>6.1000000000000004E-3</v>
       </c>
       <c r="M140">
         <v>0.61</v>
@@ -11873,7 +11896,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -11929,7 +11952,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -11964,7 +11987,7 @@
         <v>695</v>
       </c>
       <c r="L142">
-        <v>0.0032</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="M142">
         <v>0.32</v>
@@ -11985,7 +12008,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12020,7 +12043,7 @@
         <v>697</v>
       </c>
       <c r="L143">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="M143">
         <v>1.8</v>
@@ -12041,7 +12064,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12076,7 +12099,7 @@
         <v>697</v>
       </c>
       <c r="L144">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="M144">
         <v>1.6</v>
@@ -12097,7 +12120,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12153,7 +12176,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12209,7 +12232,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12265,7 +12288,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12321,7 +12344,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12377,7 +12400,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12412,7 +12435,7 @@
         <v>695</v>
       </c>
       <c r="L150">
-        <v>0.0011</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="M150">
         <v>0.11</v>
@@ -12433,7 +12456,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12489,7 +12512,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
